--- a/数据源/出差.xlsx
+++ b/数据源/出差.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\芯三代\Sicentury\Documents\IPO\工时自动分配\数据源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F5A73-502C-4473-B606-EB8E6F21B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDF15C1-E80C-49D3-B557-5EF9D98E4AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出差统计" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">出差统计!$A$1:$C$98</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="27">
   <si>
     <t>2023.05.04</t>
   </si>
@@ -91,14 +94,6 @@
   </si>
   <si>
     <t>丁炜</t>
-  </si>
-  <si>
-    <t>2024/5/24
-2024/6/11</t>
-  </si>
-  <si>
-    <t>2024/6/7
-2024/6/20</t>
   </si>
   <si>
     <t>起始日期</t>
@@ -110,6 +105,14 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐玉田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张广辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -204,6 +213,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,28 +498,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFFD335-1BCC-4EA9-A5B5-693A7E6813E6}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -808,10 +820,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+      <c r="A29" s="8">
         <v>45127</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="8">
         <v>45130</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -841,10 +853,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
+      <c r="A32" s="8">
         <v>45159</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="8">
         <v>45176</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -984,10 +996,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
+      <c r="A45" s="8">
         <v>45210</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="8">
         <v>45234</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -995,10 +1007,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
+      <c r="A46" s="8">
         <v>45210</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="8">
         <v>45234</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1006,10 +1018,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
+      <c r="A47" s="8">
         <v>45210</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="8">
         <v>45234</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1039,10 +1051,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
+      <c r="A50" s="8">
         <v>45244</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="8">
         <v>45260</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1519,7 +1531,7 @@
         <v>45446</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -1544,29 +1556,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A96" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>23</v>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="5">
+        <v>45436</v>
+      </c>
+      <c r="B96" s="5">
+        <v>45450</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" s="2">
+      <c r="A97" s="5">
+        <v>45454</v>
+      </c>
+      <c r="B97" s="5">
+        <v>45463</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
         <v>45464</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B98" s="2">
         <v>45473</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C98" xr:uid="{9EFFD335-1BCC-4EA9-A5B5-693A7E6813E6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
